--- a/原来编写的版本/test/2021年会初始模板.xlsx
+++ b/原来编写的版本/test/2021年会初始模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGithub\randomAward\原来编写的版本\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE03F13-D569-426E-91D1-21529AE84986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417356E8-4D1D-47B3-85AD-E07C304475C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="2940" windowWidth="19905" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9525" yWindow="3270" windowWidth="30555" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>联系方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,11 +81,56 @@
     <t>奖池赞助人3</t>
   </si>
   <si>
-    <t>奖池赞助人4</t>
-  </si>
-  <si>
     <t>奖品提供等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfsd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfasdfasdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfasdfsd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdasd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员3</t>
+  </si>
+  <si>
+    <t>人员4</t>
+  </si>
+  <si>
+    <t>人员5</t>
+  </si>
+  <si>
+    <t>人员6</t>
+  </si>
+  <si>
+    <t>人员7</t>
+  </si>
+  <si>
+    <t>人员8</t>
+  </si>
+  <si>
+    <t>人员9</t>
+  </si>
+  <si>
+    <t>人员10</t>
   </si>
 </sst>
 </file>
@@ -441,7 +486,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -482,101 +527,101 @@
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>348973</v>
+        <v>348974</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>348973</v>
+        <v>348975</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>348973</v>
+        <v>348976</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>348973</v>
+        <v>348977</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>348973</v>
+        <v>348978</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>348973</v>
+        <v>348979</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>348973</v>
+        <v>348980</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>348973</v>
+        <v>348981</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>348973</v>
+        <v>348982</v>
       </c>
     </row>
   </sheetData>
@@ -591,7 +636,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -623,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -636,8 +681,11 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -650,8 +698,8 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -664,8 +712,8 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
+      <c r="D4" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -678,8 +726,11 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -692,8 +743,8 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
+      <c r="D6" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -706,8 +757,14 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -720,8 +777,8 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
+      <c r="D8" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -734,8 +791,11 @@
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -748,8 +808,11 @@
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -762,8 +825,11 @@
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -776,8 +842,11 @@
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -790,8 +859,11 @@
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -804,8 +876,8 @@
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
+      <c r="D14" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -818,8 +890,11 @@
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -832,11 +907,14 @@
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -846,11 +924,14 @@
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -860,11 +941,14 @@
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -874,8 +958,8 @@
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
+      <c r="D19" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
